--- a/processed_data/problem_1/line_4.xlsx
+++ b/processed_data/problem_1/line_4.xlsx
@@ -476,7 +476,7 @@
         <v>291</v>
       </c>
       <c r="E2" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         <v>150</v>
       </c>
       <c r="E3" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         <v>150</v>
       </c>
       <c r="E4" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         <v>150</v>
       </c>
       <c r="E6" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         <v>115</v>
       </c>
       <c r="E9" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>115</v>
       </c>
       <c r="E10" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>126</v>
       </c>
       <c r="E11" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         <v>126</v>
       </c>
       <c r="E13" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>126</v>
       </c>
       <c r="E14" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>126</v>
       </c>
       <c r="E15" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>148</v>
       </c>
       <c r="E16" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>148</v>
       </c>
       <c r="E17" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>335</v>
       </c>
       <c r="E18" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>286</v>
       </c>
       <c r="E19" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>154</v>
       </c>
       <c r="E20" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>154</v>
       </c>
       <c r="E21" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>154</v>
       </c>
       <c r="E23" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>154</v>
       </c>
       <c r="E24" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>154</v>
       </c>
       <c r="E26" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>154</v>
       </c>
       <c r="E27" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>154</v>
       </c>
       <c r="E28" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>154</v>
       </c>
       <c r="E29" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>154</v>
       </c>
       <c r="E30" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>154</v>
       </c>
       <c r="E31" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>154</v>
       </c>
       <c r="E32" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>154</v>
       </c>
       <c r="E33" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>154</v>
       </c>
       <c r="E34" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>154</v>
       </c>
       <c r="E35" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>154</v>
       </c>
       <c r="E36" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>154</v>
       </c>
       <c r="E37" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>154</v>
       </c>
       <c r="E38" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>154</v>
       </c>
       <c r="E39" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>154</v>
       </c>
       <c r="E40" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>154</v>
       </c>
       <c r="E41" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>154</v>
       </c>
       <c r="E42" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>154</v>
       </c>
       <c r="E43" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>154</v>
       </c>
       <c r="E44" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>142</v>
       </c>
       <c r="E45" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>142</v>
       </c>
       <c r="E46" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>142</v>
       </c>
       <c r="E47" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>142</v>
       </c>
       <c r="E48" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>142</v>
       </c>
       <c r="E49" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>142</v>
       </c>
       <c r="E50" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>142</v>
       </c>
       <c r="E51" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>154</v>
       </c>
       <c r="E52" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>154</v>
       </c>
       <c r="E53" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>154</v>
       </c>
       <c r="E54" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>154</v>
       </c>
       <c r="E55" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>154</v>
       </c>
       <c r="E56" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>154</v>
       </c>
       <c r="E57" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>154</v>
       </c>
       <c r="E58" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>154</v>
       </c>
       <c r="E59" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>154</v>
       </c>
       <c r="E60" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>154</v>
       </c>
       <c r="E61" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>154</v>
       </c>
       <c r="E62" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>154</v>
       </c>
       <c r="E63" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>154</v>
       </c>
       <c r="E64" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>154</v>
       </c>
       <c r="E65" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>154</v>
       </c>
       <c r="E66" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>120</v>
       </c>
       <c r="E67" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>120</v>
       </c>
       <c r="E68" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>120</v>
       </c>
       <c r="E69" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>120</v>
       </c>
       <c r="E70" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>120</v>
       </c>
       <c r="E71" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>120</v>
       </c>
       <c r="E72" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>170</v>
       </c>
       <c r="E73" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>170</v>
       </c>
       <c r="E74" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>99</v>
       </c>
       <c r="E75" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>99</v>
       </c>
       <c r="E76" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>99</v>
       </c>
       <c r="E77" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>99</v>
       </c>
       <c r="E78" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>99</v>
       </c>
       <c r="E79" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>99</v>
       </c>
       <c r="E80" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>102</v>
       </c>
       <c r="E81" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>102</v>
       </c>
       <c r="E82" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>102</v>
       </c>
       <c r="E83" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>102</v>
       </c>
       <c r="E84" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>102</v>
       </c>
       <c r="E85" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>102</v>
       </c>
       <c r="E86" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>102</v>
       </c>
       <c r="E87" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>154</v>
       </c>
       <c r="E88" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>154</v>
       </c>
       <c r="E89" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>154</v>
       </c>
       <c r="E90" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>154</v>
       </c>
       <c r="E91" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>154</v>
       </c>
       <c r="E92" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>126</v>
       </c>
       <c r="E93" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>126</v>
       </c>
       <c r="E94" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>126</v>
       </c>
       <c r="E95" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>126</v>
       </c>
       <c r="E96" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>126</v>
       </c>
       <c r="E97" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>90</v>
       </c>
       <c r="E98" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>90</v>
       </c>
       <c r="E99" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>90</v>
       </c>
       <c r="E100" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>154</v>
       </c>
       <c r="E101" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>154</v>
       </c>
       <c r="E102" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>154</v>
       </c>
       <c r="E103" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>154</v>
       </c>
       <c r="E104" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>154</v>
       </c>
       <c r="E105" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="E106" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>90</v>
       </c>
       <c r="E107" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>90</v>
       </c>
       <c r="E108" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>90</v>
       </c>
       <c r="E109" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>90</v>
       </c>
       <c r="E110" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>90</v>
       </c>
       <c r="E111" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>150</v>
       </c>
       <c r="E112" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>150</v>
       </c>
       <c r="E113" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>150</v>
       </c>
       <c r="E114" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>150</v>
       </c>
       <c r="E115" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>150</v>
       </c>
       <c r="E116" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>150</v>
       </c>
       <c r="E117" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>113</v>
       </c>
       <c r="E118" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>113</v>
       </c>
       <c r="E119" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>113</v>
       </c>
       <c r="E120" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>113</v>
       </c>
       <c r="E121" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>113</v>
       </c>
       <c r="E122" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>113</v>
       </c>
       <c r="E123" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>113</v>
       </c>
       <c r="E124" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>113</v>
       </c>
       <c r="E125" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>113</v>
       </c>
       <c r="E126" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>113</v>
       </c>
       <c r="E127" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>280</v>
       </c>
       <c r="E128" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>90</v>
       </c>
       <c r="E129" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>90</v>
       </c>
       <c r="E130" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>75</v>
       </c>
       <c r="E131" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>75</v>
       </c>
       <c r="E132" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>75</v>
       </c>
       <c r="E133" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>75</v>
       </c>
       <c r="E134" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>132</v>
       </c>
       <c r="E135" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>132</v>
       </c>
       <c r="E136" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>99</v>
       </c>
       <c r="E137" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>99</v>
       </c>
       <c r="E138" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>99</v>
       </c>
       <c r="E139" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>99</v>
       </c>
       <c r="E140" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>99</v>
       </c>
       <c r="E141" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>99</v>
       </c>
       <c r="E142" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="E143" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>99</v>
       </c>
       <c r="E144" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>99</v>
       </c>
       <c r="E145" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>99</v>
       </c>
       <c r="E146" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>99</v>
       </c>
       <c r="E147" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>99</v>
       </c>
       <c r="E148" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>99</v>
       </c>
       <c r="E149" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>99</v>
       </c>
       <c r="E150" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>99</v>
       </c>
       <c r="E151" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>99</v>
       </c>
       <c r="E152" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>99</v>
       </c>
       <c r="E153" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>99</v>
       </c>
       <c r="E154" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>99</v>
       </c>
       <c r="E155" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>99</v>
       </c>
       <c r="E156" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>99</v>
       </c>
       <c r="E157" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>99</v>
       </c>
       <c r="E158" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>99</v>
       </c>
       <c r="E159" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>99</v>
       </c>
       <c r="E160" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>104</v>
       </c>
       <c r="E161" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>104</v>
       </c>
       <c r="E162" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>104</v>
       </c>
       <c r="E163" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>104</v>
       </c>
       <c r="E164" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>104</v>
       </c>
       <c r="E165" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>104</v>
       </c>
       <c r="E166" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>104</v>
       </c>
       <c r="E167" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>104</v>
       </c>
       <c r="E168" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>104</v>
       </c>
       <c r="E169" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>104</v>
       </c>
       <c r="E170" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>75</v>
       </c>
       <c r="E171" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>75</v>
       </c>
       <c r="E172" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>75</v>
       </c>
       <c r="E173" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>75</v>
       </c>
       <c r="E174" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>75</v>
       </c>
       <c r="E175" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>113</v>
       </c>
       <c r="E176" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>113</v>
       </c>
       <c r="E177" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>113</v>
       </c>
       <c r="E178" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>113</v>
       </c>
       <c r="E179" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>113</v>
       </c>
       <c r="E180" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>133</v>
       </c>
       <c r="E181" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>133</v>
       </c>
       <c r="E182" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>133</v>
       </c>
       <c r="E183" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>133</v>
       </c>
       <c r="E184" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>133</v>
       </c>
       <c r="E185" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>133</v>
       </c>
       <c r="E186" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>133</v>
       </c>
       <c r="E187" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>133</v>
       </c>
       <c r="E188" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>126</v>
       </c>
       <c r="E189" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>126</v>
       </c>
       <c r="E190" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>126</v>
       </c>
       <c r="E191" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>126</v>
       </c>
       <c r="E192" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>126</v>
       </c>
       <c r="E193" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>115</v>
       </c>
       <c r="E194" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>115</v>
       </c>
       <c r="E195" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>115</v>
       </c>
       <c r="E196" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>115</v>
       </c>
       <c r="E197" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>115</v>
       </c>
       <c r="E198" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>115</v>
       </c>
       <c r="E199" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>115</v>
       </c>
       <c r="E200" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>126</v>
       </c>
       <c r="E201" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>126</v>
       </c>
       <c r="E202" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>126</v>
       </c>
       <c r="E203" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>126</v>
       </c>
       <c r="E204" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>126</v>
       </c>
       <c r="E205" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>142</v>
       </c>
       <c r="E206" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>142</v>
       </c>
       <c r="E207" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>142</v>
       </c>
       <c r="E208" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>142</v>
       </c>
       <c r="E209" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>142</v>
       </c>
       <c r="E210" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>142</v>
       </c>
       <c r="E211" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>142</v>
       </c>
       <c r="E212" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>115</v>
       </c>
       <c r="E213" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>154</v>
       </c>
       <c r="E214" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>154</v>
       </c>
       <c r="E215" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>154</v>
       </c>
       <c r="E216" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>154</v>
       </c>
       <c r="E217" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>154</v>
       </c>
       <c r="E218" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>154</v>
       </c>
       <c r="E219" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>154</v>
       </c>
       <c r="E220" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>154</v>
       </c>
       <c r="E221" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>154</v>
       </c>
       <c r="E222" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>154</v>
       </c>
       <c r="E223" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>154</v>
       </c>
       <c r="E224" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>154</v>
       </c>
       <c r="E225" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>154</v>
       </c>
       <c r="E226" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>154</v>
       </c>
       <c r="E227" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>154</v>
       </c>
       <c r="E228" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>113</v>
       </c>
       <c r="E229" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>113</v>
       </c>
       <c r="E230" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>113</v>
       </c>
       <c r="E231" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>113</v>
       </c>
       <c r="E232" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>113</v>
       </c>
       <c r="E233" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>154</v>
       </c>
       <c r="E234" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>154</v>
       </c>
       <c r="E235" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>154</v>
       </c>
       <c r="E236" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>154</v>
       </c>
       <c r="E237" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>154</v>
       </c>
       <c r="E238" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>154</v>
       </c>
       <c r="E239" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>154</v>
       </c>
       <c r="E240" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>154</v>
       </c>
       <c r="E241" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>154</v>
       </c>
       <c r="E242" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>154</v>
       </c>
       <c r="E243" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>154</v>
       </c>
       <c r="E244" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>154</v>
       </c>
       <c r="E245" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>154</v>
       </c>
       <c r="E246" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>154</v>
       </c>
       <c r="E247" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>154</v>
       </c>
       <c r="E248" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>154</v>
       </c>
       <c r="E249" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>154</v>
       </c>
       <c r="E250" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>154</v>
       </c>
       <c r="E251" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>154</v>
       </c>
       <c r="E252" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>154</v>
       </c>
       <c r="E253" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>126</v>
       </c>
       <c r="E254" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>126</v>
       </c>
       <c r="E255" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>126</v>
       </c>
       <c r="E256" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>126</v>
       </c>
       <c r="E257" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>126</v>
       </c>
       <c r="E258" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>126</v>
       </c>
       <c r="E259" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>126</v>
       </c>
       <c r="E260" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>126</v>
       </c>
       <c r="E261" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>126</v>
       </c>
       <c r="E262" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>126</v>
       </c>
       <c r="E263" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>126</v>
       </c>
       <c r="E264" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>126</v>
       </c>
       <c r="E265" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>126</v>
       </c>
       <c r="E266" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>126</v>
       </c>
       <c r="E267" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>126</v>
       </c>
       <c r="E268" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>126</v>
       </c>
       <c r="E269" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>126</v>
       </c>
       <c r="E270" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>126</v>
       </c>
       <c r="E271" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>126</v>
       </c>
       <c r="E272" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>126</v>
       </c>
       <c r="E273" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>117</v>
       </c>
       <c r="E274" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>117</v>
       </c>
       <c r="E275" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>117</v>
       </c>
       <c r="E276" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>117</v>
       </c>
       <c r="E277" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>117</v>
       </c>
       <c r="E278" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>117</v>
       </c>
       <c r="E279" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>117</v>
       </c>
       <c r="E280" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>11429452</v>
+        <v>12000002</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>90</v>
       </c>
       <c r="E281" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>250</v>
       </c>
       <c r="E282" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>250</v>
       </c>
       <c r="E283" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>250</v>
       </c>
       <c r="E284" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>126</v>
       </c>
       <c r="E285" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>126</v>
       </c>
       <c r="E286" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>126</v>
       </c>
       <c r="E287" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>126</v>
       </c>
       <c r="E288" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>126</v>
       </c>
       <c r="E289" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>126</v>
       </c>
       <c r="E290" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>126</v>
       </c>
       <c r="E291" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>126</v>
       </c>
       <c r="E292" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>126</v>
       </c>
       <c r="E293" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>126</v>
       </c>
       <c r="E294" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>113</v>
       </c>
       <c r="E295" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>113</v>
       </c>
       <c r="E296" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>113</v>
       </c>
       <c r="E297" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>113</v>
       </c>
       <c r="E298" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>113</v>
       </c>
       <c r="E299" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>113</v>
       </c>
       <c r="E300" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>113</v>
       </c>
       <c r="E301" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>113</v>
       </c>
       <c r="E302" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>113</v>
       </c>
       <c r="E303" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>113</v>
       </c>
       <c r="E304" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>154</v>
       </c>
       <c r="E305" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>154</v>
       </c>
       <c r="E306" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>154</v>
       </c>
       <c r="E307" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>154</v>
       </c>
       <c r="E308" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>154</v>
       </c>
       <c r="E309" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>154</v>
       </c>
       <c r="E310" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>154</v>
       </c>
       <c r="E311" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>154</v>
       </c>
       <c r="E312" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>154</v>
       </c>
       <c r="E313" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>154</v>
       </c>
       <c r="E314" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>154</v>
       </c>
       <c r="E315" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>154</v>
       </c>
       <c r="E316" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>154</v>
       </c>
       <c r="E317" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>154</v>
       </c>
       <c r="E318" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>154</v>
       </c>
       <c r="E319" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>154</v>
       </c>
       <c r="E320" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>154</v>
       </c>
       <c r="E321" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>154</v>
       </c>
       <c r="E322" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>154</v>
       </c>
       <c r="E323" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>154</v>
       </c>
       <c r="E324" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>154</v>
       </c>
       <c r="E325" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>154</v>
       </c>
       <c r="E326" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>154</v>
       </c>
       <c r="E327" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>154</v>
       </c>
       <c r="E328" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>154</v>
       </c>
       <c r="E329" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>154</v>
       </c>
       <c r="E330" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>154</v>
       </c>
       <c r="E331" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>154</v>
       </c>
       <c r="E332" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>154</v>
       </c>
       <c r="E333" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>154</v>
       </c>
       <c r="E334" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>154</v>
       </c>
       <c r="E335" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>154</v>
       </c>
       <c r="E336" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>154</v>
       </c>
       <c r="E337" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>154</v>
       </c>
       <c r="E338" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>154</v>
       </c>
       <c r="E339" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>154</v>
       </c>
       <c r="E340" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>154</v>
       </c>
       <c r="E341" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>154</v>
       </c>
       <c r="E342" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>154</v>
       </c>
       <c r="E343" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>154</v>
       </c>
       <c r="E344" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>154</v>
       </c>
       <c r="E345" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>154</v>
       </c>
       <c r="E346" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>154</v>
       </c>
       <c r="E347" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>154</v>
       </c>
       <c r="E348" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>154</v>
       </c>
       <c r="E349" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>154</v>
       </c>
       <c r="E350" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>154</v>
       </c>
       <c r="E351" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>154</v>
       </c>
       <c r="E352" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>154</v>
       </c>
       <c r="E353" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>154</v>
       </c>
       <c r="E354" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>154</v>
       </c>
       <c r="E355" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>154</v>
       </c>
       <c r="E356" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>154</v>
       </c>
       <c r="E357" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>154</v>
       </c>
       <c r="E358" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>154</v>
       </c>
       <c r="E359" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>128</v>
       </c>
       <c r="E360" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>128</v>
       </c>
       <c r="E361" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>128</v>
       </c>
       <c r="E362" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>128</v>
       </c>
       <c r="E363" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>128</v>
       </c>
       <c r="E364" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>330</v>
       </c>
       <c r="E365" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>104</v>
       </c>
       <c r="E366" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>104</v>
       </c>
       <c r="E367" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>104</v>
       </c>
       <c r="E368" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>104</v>
       </c>
       <c r="E369" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>104</v>
       </c>
       <c r="E370" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>128</v>
       </c>
       <c r="E371" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>128</v>
       </c>
       <c r="E372" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>128</v>
       </c>
       <c r="E373" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>128</v>
       </c>
       <c r="E374" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>128</v>
       </c>
       <c r="E375" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>128</v>
       </c>
       <c r="E376" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>128</v>
       </c>
       <c r="E377" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>128</v>
       </c>
       <c r="E378" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>128</v>
       </c>
       <c r="E379" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>128</v>
       </c>
       <c r="E380" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>142</v>
       </c>
       <c r="E381" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>142</v>
       </c>
       <c r="E382" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>142</v>
       </c>
       <c r="E383" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>142</v>
       </c>
       <c r="E384" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>142</v>
       </c>
       <c r="E385" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>142</v>
       </c>
       <c r="E386" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>150</v>
       </c>
       <c r="E387" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>150</v>
       </c>
       <c r="E388" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>150</v>
       </c>
       <c r="E389" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>150</v>
       </c>
       <c r="E390" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>150</v>
       </c>
       <c r="E391" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>152</v>
       </c>
       <c r="E392" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>152</v>
       </c>
       <c r="E393" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>152</v>
       </c>
       <c r="E394" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>152</v>
       </c>
       <c r="E395" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>152</v>
       </c>
       <c r="E396" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>81</v>
       </c>
       <c r="E397" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>81</v>
       </c>
       <c r="E398" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>81</v>
       </c>
       <c r="E399" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>81</v>
       </c>
       <c r="E400" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>81</v>
       </c>
       <c r="E401" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>81</v>
       </c>
       <c r="E402" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>81</v>
       </c>
       <c r="E403" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>142</v>
       </c>
       <c r="E404" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>142</v>
       </c>
       <c r="E405" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>142</v>
       </c>
       <c r="E406" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>142</v>
       </c>
       <c r="E407" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>142</v>
       </c>
       <c r="E408" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>142</v>
       </c>
       <c r="E409" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>128</v>
       </c>
       <c r="E410" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>128</v>
       </c>
       <c r="E411" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>128</v>
       </c>
       <c r="E412" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>128</v>
       </c>
       <c r="E413" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>128</v>
       </c>
       <c r="E414" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>128</v>
       </c>
       <c r="E415" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>128</v>
       </c>
       <c r="E416" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>128</v>
       </c>
       <c r="E417" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>128</v>
       </c>
       <c r="E418" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>128</v>
       </c>
       <c r="E419" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>126</v>
       </c>
       <c r="E420" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>126</v>
       </c>
       <c r="E421" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>126</v>
       </c>
       <c r="E422" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>126</v>
       </c>
       <c r="E423" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>126</v>
       </c>
       <c r="E424" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>180</v>
       </c>
       <c r="E425" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>180</v>
       </c>
       <c r="E426" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>118</v>
       </c>
       <c r="E427" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>118</v>
       </c>
       <c r="E428" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>118</v>
       </c>
       <c r="E429" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>118</v>
       </c>
       <c r="E430" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>118</v>
       </c>
       <c r="E431" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>118</v>
       </c>
       <c r="E432" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>118</v>
       </c>
       <c r="E433" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>118</v>
       </c>
       <c r="E434" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>118</v>
       </c>
       <c r="E435" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>118</v>
       </c>
       <c r="E436" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>154</v>
       </c>
       <c r="E437" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>154</v>
       </c>
       <c r="E438" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>154</v>
       </c>
       <c r="E439" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>154</v>
       </c>
       <c r="E440" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>154</v>
       </c>
       <c r="E441" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>154</v>
       </c>
       <c r="E442" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>154</v>
       </c>
       <c r="E443" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>154</v>
       </c>
       <c r="E444" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>154</v>
       </c>
       <c r="E445" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>154</v>
       </c>
       <c r="E446" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>154</v>
       </c>
       <c r="E447" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>154</v>
       </c>
       <c r="E448" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>154</v>
       </c>
       <c r="E449" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>154</v>
       </c>
       <c r="E450" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>154</v>
       </c>
       <c r="E451" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>154</v>
       </c>
       <c r="E452" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>154</v>
       </c>
       <c r="E453" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>154</v>
       </c>
       <c r="E454" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>154</v>
       </c>
       <c r="E455" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>154</v>
       </c>
       <c r="E456" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>154</v>
       </c>
       <c r="E457" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>154</v>
       </c>
       <c r="E458" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>154</v>
       </c>
       <c r="E459" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>154</v>
       </c>
       <c r="E460" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>154</v>
       </c>
       <c r="E461" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>154</v>
       </c>
       <c r="E462" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>154</v>
       </c>
       <c r="E463" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>154</v>
       </c>
       <c r="E464" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>154</v>
       </c>
       <c r="E465" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>154</v>
       </c>
       <c r="E466" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>154</v>
       </c>
       <c r="E467" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>154</v>
       </c>
       <c r="E468" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>154</v>
       </c>
       <c r="E469" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>154</v>
       </c>
       <c r="E470" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>154</v>
       </c>
       <c r="E471" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>154</v>
       </c>
       <c r="E472" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>154</v>
       </c>
       <c r="E473" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>154</v>
       </c>
       <c r="E474" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>154</v>
       </c>
       <c r="E475" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>154</v>
       </c>
       <c r="E476" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>113</v>
       </c>
       <c r="E477" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>113</v>
       </c>
       <c r="E478" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>113</v>
       </c>
       <c r="E479" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>113</v>
       </c>
       <c r="E480" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>113</v>
       </c>
       <c r="E481" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>113</v>
       </c>
       <c r="E482" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>113</v>
       </c>
       <c r="E483" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>113</v>
       </c>
       <c r="E484" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>113</v>
       </c>
       <c r="E485" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>113</v>
       </c>
       <c r="E486" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>113</v>
       </c>
       <c r="E487" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>113</v>
       </c>
       <c r="E488" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>113</v>
       </c>
       <c r="E489" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>113</v>
       </c>
       <c r="E490" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>113</v>
       </c>
       <c r="E491" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>113</v>
       </c>
       <c r="E492" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>113</v>
       </c>
       <c r="E493" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>113</v>
       </c>
       <c r="E494" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>113</v>
       </c>
       <c r="E495" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>113</v>
       </c>
       <c r="E496" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>113</v>
       </c>
       <c r="E497" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>113</v>
       </c>
       <c r="E498" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>113</v>
       </c>
       <c r="E499" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>113</v>
       </c>
       <c r="E500" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>113</v>
       </c>
       <c r="E501" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>126</v>
       </c>
       <c r="E502" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>126</v>
       </c>
       <c r="E503" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>126</v>
       </c>
       <c r="E504" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>126</v>
       </c>
       <c r="E505" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>126</v>
       </c>
       <c r="E506" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>90</v>
       </c>
       <c r="E507" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>126</v>
       </c>
       <c r="E508" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>126</v>
       </c>
       <c r="E509" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>126</v>
       </c>
       <c r="E510" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>126</v>
       </c>
       <c r="E511" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>126</v>
       </c>
       <c r="E512" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>126</v>
       </c>
       <c r="E513" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>126</v>
       </c>
       <c r="E514" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>126</v>
       </c>
       <c r="E515" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>126</v>
       </c>
       <c r="E516" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>126</v>
       </c>
       <c r="E517" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>126</v>
       </c>
       <c r="E518" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>126</v>
       </c>
       <c r="E519" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>126</v>
       </c>
       <c r="E520" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>126</v>
       </c>
       <c r="E521" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>126</v>
       </c>
       <c r="E522" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>126</v>
       </c>
       <c r="E523" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>126</v>
       </c>
       <c r="E524" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>126</v>
       </c>
       <c r="E525" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>126</v>
       </c>
       <c r="E526" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>126</v>
       </c>
       <c r="E527" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>153</v>
       </c>
       <c r="E528" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>153</v>
       </c>
       <c r="E529" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>153</v>
       </c>
       <c r="E530" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>126</v>
       </c>
       <c r="E531" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>126</v>
       </c>
       <c r="E532" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>126</v>
       </c>
       <c r="E533" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>126</v>
       </c>
       <c r="E534" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>126</v>
       </c>
       <c r="E535" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>126</v>
       </c>
       <c r="E536" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>126</v>
       </c>
       <c r="E537" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>126</v>
       </c>
       <c r="E538" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>126</v>
       </c>
       <c r="E539" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>126</v>
       </c>
       <c r="E540" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>126</v>
       </c>
       <c r="E541" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>126</v>
       </c>
       <c r="E542" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>126</v>
       </c>
       <c r="E543" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>126</v>
       </c>
       <c r="E544" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>126</v>
       </c>
       <c r="E545" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>154</v>
       </c>
       <c r="E546" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>154</v>
       </c>
       <c r="E547" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>154</v>
       </c>
       <c r="E548" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>154</v>
       </c>
       <c r="E549" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>154</v>
       </c>
       <c r="E550" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>154</v>
       </c>
       <c r="E551" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>154</v>
       </c>
       <c r="E552" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>154</v>
       </c>
       <c r="E553" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>154</v>
       </c>
       <c r="E554" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>154</v>
       </c>
       <c r="E555" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>113</v>
       </c>
       <c r="E556" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>113</v>
       </c>
       <c r="E557" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>113</v>
       </c>
       <c r="E558" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>113</v>
       </c>
       <c r="E559" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>113</v>
       </c>
       <c r="E560" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>113</v>
       </c>
       <c r="E561" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>113</v>
       </c>
       <c r="E562" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>113</v>
       </c>
       <c r="E563" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>113</v>
       </c>
       <c r="E564" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>113</v>
       </c>
       <c r="E565" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>113</v>
       </c>
       <c r="E566" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>113</v>
       </c>
       <c r="E567" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>113</v>
       </c>
       <c r="E568" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>113</v>
       </c>
       <c r="E569" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>113</v>
       </c>
       <c r="E570" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>113</v>
       </c>
       <c r="E571" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>113</v>
       </c>
       <c r="E572" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>113</v>
       </c>
       <c r="E573" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>113</v>
       </c>
       <c r="E574" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>113</v>
       </c>
       <c r="E575" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>113</v>
       </c>
       <c r="E576" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>113</v>
       </c>
       <c r="E577" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>113</v>
       </c>
       <c r="E578" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>113</v>
       </c>
       <c r="E579" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>113</v>
       </c>
       <c r="E580" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>98</v>
       </c>
       <c r="E581" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F581" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>98</v>
       </c>
       <c r="E582" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F582" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>98</v>
       </c>
       <c r="E583" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>98</v>
       </c>
       <c r="E584" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>98</v>
       </c>
       <c r="E585" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>98</v>
       </c>
       <c r="E586" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>98</v>
       </c>
       <c r="E587" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>98</v>
       </c>
       <c r="E588" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F588" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>98</v>
       </c>
       <c r="E589" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>98</v>
       </c>
       <c r="E590" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>113</v>
       </c>
       <c r="E591" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>113</v>
       </c>
       <c r="E592" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>113</v>
       </c>
       <c r="E593" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>113</v>
       </c>
       <c r="E594" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>113</v>
       </c>
       <c r="E595" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>113</v>
       </c>
       <c r="E596" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F596" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>113</v>
       </c>
       <c r="E597" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F597" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>113</v>
       </c>
       <c r="E598" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>113</v>
       </c>
       <c r="E599" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>113</v>
       </c>
       <c r="E600" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>113</v>
       </c>
       <c r="E601" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>113</v>
       </c>
       <c r="E602" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>113</v>
       </c>
       <c r="E603" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>113</v>
       </c>
       <c r="E604" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>113</v>
       </c>
       <c r="E605" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>111</v>
       </c>
       <c r="E606" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F606" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>111</v>
       </c>
       <c r="E607" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>111</v>
       </c>
       <c r="E608" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F608" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>111</v>
       </c>
       <c r="E609" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>111</v>
       </c>
       <c r="E610" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>111</v>
       </c>
       <c r="E611" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>113</v>
       </c>
       <c r="E612" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>113</v>
       </c>
       <c r="E613" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>113</v>
       </c>
       <c r="E614" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>113</v>
       </c>
       <c r="E615" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>113</v>
       </c>
       <c r="E616" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>270</v>
       </c>
       <c r="E617" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F617" t="inlineStr">
         <is>
